--- a/Perceivable/WCAG_1.3.3_SensoryCharacteristics_Narayanan_Palani_TestCase_v1.xlsx
+++ b/Perceivable/WCAG_1.3.3_SensoryCharacteristics_Narayanan_Palani_TestCase_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udemy_Supreme_Quality\13 Write Accessibility Testing-Test Cases\GithubRepo\webAccessibilityTestCases\Perceivable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5233A565-9413-4ED0-824D-83D70794222B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9D3E5-D405-456C-A159-7692FDBC4B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="525" windowWidth="15375" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Test Case Worksheet</t>
   </si>
@@ -186,6 +186,12 @@
   <si>
     <t>Screen reader should read to ensure that all users can access instructions for using the content, even when they cannot perceive shape or size or use information about spatial location or orientation. Some content relies on knowledge of the shape or position of objects that are not available from the structure of the content (for example, "round button" or "button to the right"). Some users with disabilities are not able to perceive shape or position due to the nature of the assistive technologies they use.
 So screen reader should clearly read out thse sensory contents and designs when user navigated using keyboard shortcuts.</t>
+  </si>
+  <si>
+    <t>Level Classification</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -312,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,9 +347,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,24 +358,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,8 +755,8 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="21" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -742,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="4"/>
       <c r="H1" s="1"/>
     </row>
@@ -757,8 +780,8 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
     </row>
@@ -772,10 +795,10 @@
         <v>WCAG_1.3.3_SensoryCharacteristics</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -784,10 +807,10 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -796,7 +819,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="9"/>
@@ -808,7 +831,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8" t="str">
@@ -823,7 +846,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -835,26 +858,26 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -863,155 +886,159 @@
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" ht="202.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="9" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="9" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="9" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1023,6 +1050,7 @@
     <hyperlink ref="F7" r:id="rId1" xr:uid="{223ECB65-5C59-4869-ADE9-0781F5601072}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>